--- a/LF/TAS/Burkina Faso/2024/jan/bf_lf_tas1_202401_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2024/jan/bf_lf_tas1_202401_2_participant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DBE454-872D-4156-8000-79D02C37B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A3865-62B9-43A1-8CA8-C9C23E1335AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="347">
   <si>
     <t>type</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>2 nouveau entrant</t>
-  </si>
-  <si>
-    <t>1 examiné précédemment</t>
   </si>
   <si>
     <t>statut_enr</t>
@@ -388,9 +382,6 @@
     <t>c_ Peur_ effets _indesirables</t>
   </si>
   <si>
-    <t>c.Peur des effets indesirables</t>
-  </si>
-  <si>
     <t xml:space="preserve">d_Pas _au _courant_TDM </t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t xml:space="preserve">e_DC_pas_ venu_chez_moi </t>
   </si>
   <si>
-    <t xml:space="preserve">e.Le distributeur n'est pas venu chez moi </t>
-  </si>
-  <si>
     <t>list_migration</t>
   </si>
   <si>
@@ -814,27 +802,9 @@
     <t>Primaire</t>
   </si>
   <si>
-    <t>secondaire</t>
-  </si>
-  <si>
     <t>Superieure</t>
   </si>
   <si>
-    <t>a.Aucune</t>
-  </si>
-  <si>
-    <t>b.Alphabétise</t>
-  </si>
-  <si>
-    <t>c.Primaire</t>
-  </si>
-  <si>
-    <t>d.secondaire</t>
-  </si>
-  <si>
-    <t>e.Superieure</t>
-  </si>
-  <si>
     <t>15.Quel est votre niveau de scolarisation ?</t>
   </si>
   <si>
@@ -865,12 +835,6 @@
     <t xml:space="preserve">g_Autres _raisons </t>
   </si>
   <si>
-    <t>f.Refus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g.Autres raisons </t>
-  </si>
-  <si>
     <t>a_rci</t>
   </si>
   <si>
@@ -904,12 +868,6 @@
     <t>${Recu_IVM} = '2_non'and ${p_consent} = '1_oui'</t>
   </si>
   <si>
-    <t>1_examine_precedemment</t>
-  </si>
-  <si>
-    <t>2_nouveau_entrant</t>
-  </si>
-  <si>
     <t>Alphabetise</t>
   </si>
   <si>
@@ -1051,12 +1009,6 @@
     <t>Satut_prelev</t>
   </si>
   <si>
-    <t>(Jan 2024) Burkina Faso TAS FL - 2. Formulaire Enrôlement</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202401_2_participant</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -1082,6 +1034,63 @@
   </si>
   <si>
     <t>C_Difficulte_d_absorption_echantillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer suivant pour saisir les informations sur les caractéristiques de l’enquêté </t>
+  </si>
+  <si>
+    <t>Alphabétise</t>
+  </si>
+  <si>
+    <t>Secondaire</t>
+  </si>
+  <si>
+    <t>c. Peur des effets indesirables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e. Le distributeur n'est pas venu chez moi </t>
+  </si>
+  <si>
+    <t>f. Refus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g. Autres raisons </t>
+  </si>
+  <si>
+    <t>${Duree_sejour} = 0</t>
+  </si>
+  <si>
+    <t>16.b. Préciser le nombre de mois</t>
+  </si>
+  <si>
+    <t>. &lt; 12</t>
+  </si>
+  <si>
+    <t>Le nombre de mois ne dois pas dépasser 11</t>
+  </si>
+  <si>
+    <t>Duree_sejour_mois</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202401_2_participant_2</t>
+  </si>
+  <si>
+    <t>(Jan 2024) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2</t>
+  </si>
+  <si>
+    <t>Cliquer suivant pour  saisir les informations sur le résultat de l’enquêté</t>
+  </si>
+  <si>
+    <t>1 Ancien positif</t>
+  </si>
+  <si>
+    <t>2 Nouvel entrant</t>
+  </si>
+  <si>
+    <t>1_ancien_positif</t>
+  </si>
+  <si>
+    <t>2_nouvel_entrant</t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD11"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -1722,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1734,27 +1744,27 @@
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -1762,13 +1772,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -1776,13 +1786,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1799,13 +1809,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1819,13 +1829,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1839,13 +1849,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1857,16 +1867,16 @@
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>10</v>
@@ -1877,13 +1887,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" t="s">
@@ -1892,25 +1902,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -1918,25 +1928,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
         <v>10</v>
@@ -1944,36 +1954,39 @@
     </row>
     <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
@@ -1985,22 +1998,22 @@
     </row>
     <row r="14" spans="1:14" ht="32.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
@@ -2012,21 +2025,21 @@
     </row>
     <row r="15" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>10</v>
@@ -2043,340 +2056,307 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="D18" s="8"/>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>335</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="H26" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="H27" t="s">
+        <v>271</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="H22" t="s">
-        <v>282</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="H23" t="s">
-        <v>283</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="H29" t="s">
+        <v>269</v>
+      </c>
       <c r="J29" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>330</v>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>226</v>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    </row>
+    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" t="s">
         <v>227</v>
       </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>234</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
+      <c r="J33" t="s">
         <v>10</v>
       </c>
       <c r="K33" s="9"/>
@@ -2384,20 +2364,20 @@
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>9</v>
+      <c r="A34" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
+        <v>228</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
@@ -2408,42 +2388,38 @@
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
         <v>229</v>
       </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="10"/>
+      <c r="H35" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9" t="s">
@@ -2455,16 +2431,16 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
@@ -2476,16 +2452,19 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>232</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9" t="s">
@@ -2497,19 +2476,19 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I39" s="10"/>
       <c r="J39" s="9" t="s">
@@ -2519,15 +2498,20 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
-      </c>
-      <c r="H40" s="12"/>
+        <v>234</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
         <v>10</v>
@@ -2538,16 +2522,16 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>141</v>
+        <v>235</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="s">
@@ -2559,52 +2543,135 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
         <v>100</v>
       </c>
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,151 +2703,151 @@
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2797,10 +2864,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -2809,10 +2876,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2821,10 +2888,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -2839,142 +2906,142 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" t="s">
         <v>181</v>
       </c>
-      <c r="B23" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" t="s">
-        <v>185</v>
-      </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" t="s">
         <v>294</v>
-      </c>
-      <c r="E24" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" t="s">
         <v>295</v>
-      </c>
-      <c r="E28" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2988,150 +3055,150 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" t="s">
         <v>189</v>
       </c>
-      <c r="B38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" t="s">
-        <v>193</v>
-      </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G39" s="15"/>
     </row>
@@ -3146,222 +3213,222 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G42" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G43" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G44" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" t="s">
         <v>194</v>
       </c>
-      <c r="B45" t="s">
-        <v>198</v>
-      </c>
       <c r="C45" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G45" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G46" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G49" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
         <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
       </c>
       <c r="D51"/>
     </row>
     <row r="52" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D52"/>
     </row>
     <row r="53" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
         <v>25</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
         <v>46</v>
       </c>
-      <c r="B57" t="s">
-        <v>48</v>
-      </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3372,7 +3439,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3383,289 +3450,289 @@
         <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>112</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>116</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B85" s="22">
         <v>1</v>
@@ -3677,7 +3744,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B86" s="22">
         <v>2</v>
@@ -3689,206 +3756,206 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="C92" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D96" s="8"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D102" s="8"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D103" s="8"/>
     </row>
@@ -3906,7 +3973,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3923,18 +3990,18 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3943,15 +4010,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2b3977cbccd3bcf631390164057ea08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e6655229457273daeac0ec2bc1901eb" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -4180,15 +4238,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7691146D-9A17-4B60-A330-159941DFBC25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4205,4 +4264,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LF/TAS/Burkina Faso/2024/jan/bf_lf_tas1_202401_2_participant.xlsx
+++ b/LF/TAS/Burkina Faso/2024/jan/bf_lf_tas1_202401_2_participant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2024\jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A3865-62B9-43A1-8CA8-C9C23E1335AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77272A-FB56-478F-BF62-F6D34220B1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="350">
   <si>
     <t>type</t>
   </si>
@@ -1072,25 +1072,34 @@
     <t>Duree_sejour_mois</t>
   </si>
   <si>
-    <t>bf_lf_tas1_202401_2_participant_2</t>
-  </si>
-  <si>
-    <t>(Jan 2024) Burkina Faso TAS FL - 2. Formulaire Enrôlement V2</t>
-  </si>
-  <si>
     <t>Cliquer suivant pour  saisir les informations sur le résultat de l’enquêté</t>
   </si>
   <si>
-    <t>1 Ancien positif</t>
-  </si>
-  <si>
     <t>2 Nouvel entrant</t>
   </si>
   <si>
-    <t>1_ancien_positif</t>
-  </si>
-  <si>
     <t>2_nouvel_entrant</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202401_2_participant_3</t>
+  </si>
+  <si>
+    <t>(Jan 2024) Burkina Faso TAS FL - 2. Formulaire Enrôlement V3</t>
+  </si>
+  <si>
+    <t>1 Enregistré précédemment</t>
+  </si>
+  <si>
+    <t>1_enregistre_precedemment</t>
+  </si>
+  <si>
+    <t>ancien_positif</t>
+  </si>
+  <si>
+    <t>15.b. Ancien positif</t>
+  </si>
+  <si>
+    <t>${status} = '1_enregistre_precedemment'</t>
   </si>
 </sst>
 </file>
@@ -1690,11 +1699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1977,7 @@
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>78</v>
@@ -1998,7 +2007,7 @@
     </row>
     <row r="14" spans="1:14" ht="32.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>79</v>
@@ -2201,21 +2210,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" t="s">
+        <v>348</v>
+      </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>349</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>10</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="H26" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>10</v>
@@ -2243,70 +2249,73 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="H27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="H28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>218</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>85</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" t="s">
-        <v>269</v>
       </c>
       <c r="J29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>85</v>
+        <v>219</v>
+      </c>
+      <c r="H30" t="s">
+        <v>269</v>
       </c>
       <c r="J30" t="s">
         <v>10</v>
@@ -2317,70 +2326,63 @@
         <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
+      <c r="D33" s="13" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
+        <v>167</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>324</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
+      <c r="J34" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="9"/>
@@ -2388,14 +2390,17 @@
       <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>222</v>
+      <c r="A35" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>324</v>
@@ -2410,13 +2415,13 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>324</v>
@@ -2431,16 +2436,16 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
@@ -2452,19 +2457,16 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>9</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9" t="s">
@@ -2475,60 +2477,63 @@
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>225</v>
+      <c r="A39" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>222</v>
+      <c r="A40" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I40" s="9"/>
+        <v>233</v>
+      </c>
+      <c r="D40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" s="10"/>
       <c r="J40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>128</v>
@@ -2543,16 +2548,16 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9" t="s">
@@ -2563,59 +2568,59 @@
       <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>225</v>
+      <c r="A43" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" s="10"/>
+        <v>236</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="9"/>
       <c r="J43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K43" s="10"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>226</v>
+      <c r="A44" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
+        <v>237</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="10"/>
       <c r="J44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="K44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>137</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H45" s="12"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
         <v>10</v>
@@ -2629,49 +2634,70 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>325</v>
+        <v>239</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="J46" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
         <v>61</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,10 +3508,10 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" t="s">
         <v>345</v>
-      </c>
-      <c r="C62" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3493,10 +3519,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,7 +3999,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,10 +4021,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
@@ -4010,6 +4036,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2b3977cbccd3bcf631390164057ea08">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e6655229457273daeac0ec2bc1901eb" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -4238,16 +4273,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7691146D-9A17-4B60-A330-159941DFBC25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4264,12 +4298,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA70DE9-52EB-4A74-A92B-6BC33DECE403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>